--- a/output/Ugut/forecast.xlsx
+++ b/output/Ugut/forecast.xlsx
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="1" customWidth="1"/>
@@ -456,13 +456,13 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1">
-        <v>76657</v>
+        <v>9210</v>
       </c>
       <c r="C2" s="1">
-        <v>9210</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="D2" s="1">
         <v>2000</v>
@@ -477,24 +477,24 @@
         <v>662</v>
       </c>
       <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
         <v>-22039</v>
       </c>
-      <c r="I2" s="1">
-        <v>8912</v>
-      </c>
       <c r="J2" s="1">
-        <v>456</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
-        <v>2868</v>
+        <v>646</v>
       </c>
       <c r="C3" s="1">
-        <v>646</v>
+        <v>14.04347801208496</v>
       </c>
       <c r="D3" s="1">
         <v>2001</v>
@@ -509,24 +509,24 @@
         <v>769</v>
       </c>
       <c r="H3" s="1">
+        <v>-26</v>
+      </c>
+      <c r="I3" s="1">
         <v>-74862</v>
       </c>
-      <c r="I3" s="1">
-        <v>-104715</v>
-      </c>
       <c r="J3" s="1">
-        <v>277</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
-        <v>6710</v>
+        <v>898</v>
       </c>
       <c r="C4" s="1">
-        <v>898</v>
+        <v>7.126984119415283</v>
       </c>
       <c r="D4" s="1">
         <v>2002</v>
@@ -541,24 +541,24 @@
         <v>835</v>
       </c>
       <c r="H4" s="1">
+        <v>99</v>
+      </c>
+      <c r="I4" s="1">
         <v>92098</v>
       </c>
-      <c r="I4" s="1">
-        <v>133769</v>
-      </c>
       <c r="J4" s="1">
-        <v>45</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>720</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1">
-        <v>119922</v>
+        <v>9564</v>
       </c>
       <c r="C5" s="1">
-        <v>9564</v>
+        <v>13.28333377838135</v>
       </c>
       <c r="D5" s="1">
         <v>2003</v>
@@ -573,24 +573,24 @@
         <v>649</v>
       </c>
       <c r="H5" s="1">
+        <v>124</v>
+      </c>
+      <c r="I5" s="1">
         <v>100146</v>
       </c>
-      <c r="I5" s="1">
-        <v>187141</v>
-      </c>
       <c r="J5" s="1">
-        <v>595</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>959</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1">
-        <v>276787</v>
+        <v>34271</v>
       </c>
       <c r="C6" s="1">
-        <v>34271</v>
+        <v>35.73618316650391</v>
       </c>
       <c r="D6" s="1">
         <v>2004</v>
@@ -605,24 +605,24 @@
         <v>506</v>
       </c>
       <c r="H6" s="1">
+        <v>94</v>
+      </c>
+      <c r="I6" s="1">
         <v>82383</v>
       </c>
-      <c r="I6" s="1">
-        <v>201657</v>
-      </c>
       <c r="J6" s="1">
-        <v>620</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>912</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1">
-        <v>198551</v>
+        <v>58652</v>
       </c>
       <c r="C7" s="1">
-        <v>58652</v>
+        <v>64.3114013671875</v>
       </c>
       <c r="D7" s="1">
         <v>2005</v>
@@ -637,24 +637,24 @@
         <v>457</v>
       </c>
       <c r="H7" s="1">
+        <v>192</v>
+      </c>
+      <c r="I7" s="1">
         <v>205232</v>
       </c>
-      <c r="I7" s="1">
-        <v>404849</v>
-      </c>
       <c r="J7" s="1">
-        <v>732</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>453</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1">
-        <v>59529</v>
+        <v>10614</v>
       </c>
       <c r="C8" s="1">
-        <v>10614</v>
+        <v>23.43046379089355</v>
       </c>
       <c r="D8" s="1">
         <v>2006</v>
@@ -669,24 +669,24 @@
         <v>481</v>
       </c>
       <c r="H8" s="1">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1">
         <v>8872</v>
       </c>
-      <c r="I8" s="1">
-        <v>53474</v>
-      </c>
       <c r="J8" s="1">
-        <v>513</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1">
-        <v>47835</v>
+        <v>26795</v>
       </c>
       <c r="C9" s="1">
-        <v>26795</v>
+        <v>79.74702453613281</v>
       </c>
       <c r="D9" s="1">
         <v>2007</v>
@@ -701,24 +701,24 @@
         <v>721</v>
       </c>
       <c r="H9" s="1">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1">
         <v>25643</v>
       </c>
-      <c r="I9" s="1">
-        <v>56890</v>
-      </c>
       <c r="J9" s="1">
-        <v>193</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1">
-        <v>23477</v>
+        <v>5100</v>
       </c>
       <c r="C10" s="1">
-        <v>5100</v>
+        <v>21.51898765563965</v>
       </c>
       <c r="D10" s="1">
         <v>2008</v>
@@ -733,24 +733,24 @@
         <v>646</v>
       </c>
       <c r="H10" s="1">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1">
         <v>-6824</v>
       </c>
-      <c r="I10" s="1">
-        <v>21078</v>
-      </c>
       <c r="J10" s="1">
-        <v>305</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>529</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1">
-        <v>69644</v>
+        <v>8732</v>
       </c>
       <c r="C11" s="1">
-        <v>8732</v>
+        <v>16.50661659240723</v>
       </c>
       <c r="D11" s="1">
         <v>2009</v>
@@ -765,24 +765,24 @@
         <v>464</v>
       </c>
       <c r="H11" s="1">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1">
         <v>14230</v>
       </c>
-      <c r="I11" s="1">
-        <v>61096</v>
-      </c>
       <c r="J11" s="1">
-        <v>534</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>415</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1">
-        <v>107979</v>
+        <v>61888</v>
       </c>
       <c r="C12" s="1">
-        <v>61888</v>
+        <v>149.1277160644531</v>
       </c>
       <c r="D12" s="1">
         <v>2010</v>
@@ -797,24 +797,24 @@
         <v>571</v>
       </c>
       <c r="H12" s="1">
+        <v>117</v>
+      </c>
+      <c r="I12" s="1">
         <v>75887</v>
       </c>
-      <c r="I12" s="1">
-        <v>105178</v>
-      </c>
       <c r="J12" s="1">
-        <v>266</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>825</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1">
-        <v>188100</v>
+        <v>93465</v>
       </c>
       <c r="C13" s="1">
-        <v>93465</v>
+        <v>113.2909088134766</v>
       </c>
       <c r="D13" s="1">
         <v>2011</v>
@@ -829,24 +829,24 @@
         <v>604</v>
       </c>
       <c r="H13" s="1">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
         <v>-15419</v>
       </c>
-      <c r="I13" s="1">
-        <v>17108</v>
-      </c>
       <c r="J13" s="1">
-        <v>378</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>1235</v>
+        <v>1067</v>
       </c>
       <c r="B14" s="1">
-        <v>1317798</v>
+        <v>786198</v>
       </c>
       <c r="C14" s="1">
-        <v>786198</v>
+        <v>636.5975952148438</v>
       </c>
       <c r="D14" s="1">
         <v>2012</v>
@@ -861,24 +861,24 @@
         <v>423</v>
       </c>
       <c r="H14" s="1">
+        <v>567</v>
+      </c>
+      <c r="I14" s="1">
         <v>668907</v>
       </c>
-      <c r="I14" s="1">
-        <v>1130684</v>
-      </c>
       <c r="J14" s="1">
-        <v>952</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>517</v>
+        <v>387</v>
       </c>
       <c r="B15" s="1">
-        <v>200479</v>
+        <v>134647</v>
       </c>
       <c r="C15" s="1">
-        <v>134647</v>
+        <v>260.4390563964844</v>
       </c>
       <c r="D15" s="1">
         <v>2013</v>
@@ -893,24 +893,24 @@
         <v>283</v>
       </c>
       <c r="H15" s="1">
+        <v>170</v>
+      </c>
+      <c r="I15" s="1">
         <v>97885</v>
       </c>
-      <c r="I15" s="1">
-        <v>159838</v>
-      </c>
       <c r="J15" s="1">
-        <v>747</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
-        <v>6074</v>
+        <v>1775</v>
       </c>
       <c r="C16" s="1">
-        <v>1775</v>
+        <v>18.88297843933105</v>
       </c>
       <c r="D16" s="1">
         <v>2014</v>
@@ -925,24 +925,24 @@
         <v>396</v>
       </c>
       <c r="H16" s="1">
+        <v>87</v>
+      </c>
+      <c r="I16" s="1">
         <v>20496</v>
       </c>
-      <c r="I16" s="1">
-        <v>46410</v>
-      </c>
       <c r="J16" s="1">
-        <v>579</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
-        <v>10418</v>
+        <v>2338</v>
       </c>
       <c r="C17" s="1">
-        <v>2338</v>
+        <v>19.1639347076416</v>
       </c>
       <c r="D17" s="1">
         <v>2015</v>
@@ -957,24 +957,24 @@
         <v>678</v>
       </c>
       <c r="H17" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I17" s="1">
         <v>-42198</v>
       </c>
-      <c r="I17" s="1">
-        <v>-25957</v>
-      </c>
       <c r="J17" s="1">
-        <v>402</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1">
-        <v>28917</v>
+        <v>18388</v>
       </c>
       <c r="C18" s="1">
-        <v>18388</v>
+        <v>75.36065673828125</v>
       </c>
       <c r="D18" s="1">
         <v>2016</v>
@@ -989,24 +989,24 @@
         <v>737</v>
       </c>
       <c r="H18" s="1">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
         <v>4821</v>
       </c>
-      <c r="I18" s="1">
-        <v>-3909</v>
-      </c>
       <c r="J18" s="1">
-        <v>500</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="B19" s="1">
-        <v>99483</v>
+        <v>81724</v>
       </c>
       <c r="C19" s="1">
-        <v>81724</v>
+        <v>213.3785858154297</v>
       </c>
       <c r="D19" s="1">
         <v>2017</v>
@@ -1021,24 +1021,24 @@
         <v>589</v>
       </c>
       <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1">
         <v>-12387</v>
       </c>
-      <c r="I19" s="1">
-        <v>34227</v>
-      </c>
       <c r="J19" s="1">
-        <v>452</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
-        <v>24722</v>
+        <v>12674</v>
       </c>
       <c r="C20" s="1">
-        <v>12674</v>
+        <v>22.7132625579834</v>
       </c>
       <c r="D20" s="1">
         <v>2018</v>
@@ -1053,24 +1053,24 @@
         <v>545</v>
       </c>
       <c r="H20" s="1">
+        <v>78</v>
+      </c>
+      <c r="I20" s="1">
         <v>31670</v>
       </c>
-      <c r="I20" s="1">
-        <v>51872</v>
-      </c>
       <c r="J20" s="1">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>543</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
-        <v>31199</v>
+        <v>9198</v>
       </c>
       <c r="C21" s="1">
-        <v>9198</v>
+        <v>16.9392261505127</v>
       </c>
       <c r="D21" s="1">
         <v>2019</v>
@@ -1085,24 +1085,24 @@
         <v>484</v>
       </c>
       <c r="H21" s="1">
+        <v>74</v>
+      </c>
+      <c r="I21" s="1">
         <v>50278</v>
       </c>
-      <c r="I21" s="1">
-        <v>142983</v>
-      </c>
       <c r="J21" s="1">
-        <v>592</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>633</v>
+        <v>339</v>
       </c>
       <c r="B22" s="1">
-        <v>227985</v>
+        <v>185155</v>
       </c>
       <c r="C22" s="1">
-        <v>185155</v>
+        <v>261.9937133789062</v>
       </c>
       <c r="D22" s="1">
         <v>2020</v>
@@ -1117,13 +1117,13 @@
         <v>566</v>
       </c>
       <c r="H22" s="1">
+        <v>234</v>
+      </c>
+      <c r="I22" s="1">
         <v>247112</v>
       </c>
-      <c r="I22" s="1">
-        <v>442549</v>
-      </c>
       <c r="J22" s="1">
-        <v>713</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/output/Ugut/forecast.xlsx
+++ b/output/Ugut/forecast.xlsx
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="1" customWidth="1"/>
@@ -456,13 +456,13 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="B2" s="1">
+        <v>76657</v>
+      </c>
+      <c r="C2" s="1">
         <v>9210</v>
-      </c>
-      <c r="C2" s="1">
-        <v>30.70000076293945</v>
       </c>
       <c r="D2" s="1">
         <v>2000</v>
@@ -477,24 +477,24 @@
         <v>662</v>
       </c>
       <c r="H2" s="1">
-        <v>12</v>
+        <v>-22039</v>
       </c>
       <c r="I2" s="1">
-        <v>-22039</v>
+        <v>8912</v>
       </c>
       <c r="J2" s="1">
-        <v>214</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
+        <v>2868</v>
+      </c>
+      <c r="C3" s="1">
         <v>646</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14.04347801208496</v>
       </c>
       <c r="D3" s="1">
         <v>2001</v>
@@ -509,24 +509,24 @@
         <v>769</v>
       </c>
       <c r="H3" s="1">
-        <v>-26</v>
+        <v>-74862</v>
       </c>
       <c r="I3" s="1">
-        <v>-74862</v>
+        <v>-104715</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1">
+        <v>6710</v>
+      </c>
+      <c r="C4" s="1">
         <v>898</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.126984119415283</v>
       </c>
       <c r="D4" s="1">
         <v>2002</v>
@@ -541,24 +541,24 @@
         <v>835</v>
       </c>
       <c r="H4" s="1">
-        <v>99</v>
+        <v>92098</v>
       </c>
       <c r="I4" s="1">
-        <v>92098</v>
+        <v>133769</v>
       </c>
       <c r="J4" s="1">
-        <v>-70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>166</v>
+        <v>720</v>
       </c>
       <c r="B5" s="1">
+        <v>119922</v>
+      </c>
+      <c r="C5" s="1">
         <v>9564</v>
-      </c>
-      <c r="C5" s="1">
-        <v>13.28333377838135</v>
       </c>
       <c r="D5" s="1">
         <v>2003</v>
@@ -573,24 +573,24 @@
         <v>649</v>
       </c>
       <c r="H5" s="1">
-        <v>124</v>
+        <v>100146</v>
       </c>
       <c r="I5" s="1">
-        <v>100146</v>
+        <v>187141</v>
       </c>
       <c r="J5" s="1">
-        <v>323</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>288</v>
+        <v>959</v>
       </c>
       <c r="B6" s="1">
+        <v>276787</v>
+      </c>
+      <c r="C6" s="1">
         <v>34271</v>
-      </c>
-      <c r="C6" s="1">
-        <v>35.73618316650391</v>
       </c>
       <c r="D6" s="1">
         <v>2004</v>
@@ -605,24 +605,24 @@
         <v>506</v>
       </c>
       <c r="H6" s="1">
-        <v>94</v>
+        <v>82383</v>
       </c>
       <c r="I6" s="1">
-        <v>82383</v>
+        <v>201657</v>
       </c>
       <c r="J6" s="1">
-        <v>301</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>217</v>
+        <v>912</v>
       </c>
       <c r="B7" s="1">
+        <v>198551</v>
+      </c>
+      <c r="C7" s="1">
         <v>58652</v>
-      </c>
-      <c r="C7" s="1">
-        <v>64.3114013671875</v>
       </c>
       <c r="D7" s="1">
         <v>2005</v>
@@ -637,24 +637,24 @@
         <v>457</v>
       </c>
       <c r="H7" s="1">
-        <v>192</v>
+        <v>205232</v>
       </c>
       <c r="I7" s="1">
-        <v>205232</v>
+        <v>404849</v>
       </c>
       <c r="J7" s="1">
-        <v>379</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>131</v>
+        <v>453</v>
       </c>
       <c r="B8" s="1">
+        <v>59529</v>
+      </c>
+      <c r="C8" s="1">
         <v>10614</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23.43046379089355</v>
       </c>
       <c r="D8" s="1">
         <v>2006</v>
@@ -669,24 +669,24 @@
         <v>481</v>
       </c>
       <c r="H8" s="1">
-        <v>52</v>
+        <v>8872</v>
       </c>
       <c r="I8" s="1">
-        <v>8872</v>
+        <v>53474</v>
       </c>
       <c r="J8" s="1">
-        <v>207</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1">
+        <v>47835</v>
+      </c>
+      <c r="C9" s="1">
         <v>26795</v>
-      </c>
-      <c r="C9" s="1">
-        <v>79.74702453613281</v>
       </c>
       <c r="D9" s="1">
         <v>2007</v>
@@ -701,24 +701,24 @@
         <v>721</v>
       </c>
       <c r="H9" s="1">
-        <v>46</v>
+        <v>25643</v>
       </c>
       <c r="I9" s="1">
-        <v>25643</v>
+        <v>56890</v>
       </c>
       <c r="J9" s="1">
-        <v>17</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1">
+        <v>23477</v>
+      </c>
+      <c r="C10" s="1">
         <v>5100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>21.51898765563965</v>
       </c>
       <c r="D10" s="1">
         <v>2008</v>
@@ -733,24 +733,24 @@
         <v>646</v>
       </c>
       <c r="H10" s="1">
-        <v>22</v>
+        <v>-6824</v>
       </c>
       <c r="I10" s="1">
-        <v>-6824</v>
+        <v>21078</v>
       </c>
       <c r="J10" s="1">
-        <v>86</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>131</v>
+        <v>529</v>
       </c>
       <c r="B11" s="1">
+        <v>69644</v>
+      </c>
+      <c r="C11" s="1">
         <v>8732</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16.50661659240723</v>
       </c>
       <c r="D11" s="1">
         <v>2009</v>
@@ -765,24 +765,24 @@
         <v>464</v>
       </c>
       <c r="H11" s="1">
-        <v>59</v>
+        <v>14230</v>
       </c>
       <c r="I11" s="1">
-        <v>14230</v>
+        <v>61096</v>
       </c>
       <c r="J11" s="1">
-        <v>219</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="B12" s="1">
+        <v>107979</v>
+      </c>
+      <c r="C12" s="1">
         <v>61888</v>
-      </c>
-      <c r="C12" s="1">
-        <v>149.1277160644531</v>
       </c>
       <c r="D12" s="1">
         <v>2010</v>
@@ -797,24 +797,24 @@
         <v>571</v>
       </c>
       <c r="H12" s="1">
-        <v>117</v>
+        <v>75887</v>
       </c>
       <c r="I12" s="1">
-        <v>75887</v>
+        <v>105178</v>
       </c>
       <c r="J12" s="1">
-        <v>33</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>228</v>
+        <v>825</v>
       </c>
       <c r="B13" s="1">
+        <v>188100</v>
+      </c>
+      <c r="C13" s="1">
         <v>93465</v>
-      </c>
-      <c r="C13" s="1">
-        <v>113.2909088134766</v>
       </c>
       <c r="D13" s="1">
         <v>2011</v>
@@ -829,24 +829,24 @@
         <v>604</v>
       </c>
       <c r="H13" s="1">
-        <v>17</v>
+        <v>-15419</v>
       </c>
       <c r="I13" s="1">
-        <v>-15419</v>
+        <v>17108</v>
       </c>
       <c r="J13" s="1">
-        <v>134</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>1067</v>
+        <v>1235</v>
       </c>
       <c r="B14" s="1">
+        <v>1317798</v>
+      </c>
+      <c r="C14" s="1">
         <v>786198</v>
-      </c>
-      <c r="C14" s="1">
-        <v>636.5975952148438</v>
       </c>
       <c r="D14" s="1">
         <v>2012</v>
@@ -861,24 +861,24 @@
         <v>423</v>
       </c>
       <c r="H14" s="1">
-        <v>567</v>
+        <v>668907</v>
       </c>
       <c r="I14" s="1">
-        <v>668907</v>
+        <v>1130684</v>
       </c>
       <c r="J14" s="1">
-        <v>548</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>387</v>
+        <v>517</v>
       </c>
       <c r="B15" s="1">
+        <v>200479</v>
+      </c>
+      <c r="C15" s="1">
         <v>134647</v>
-      </c>
-      <c r="C15" s="1">
-        <v>260.4390563964844</v>
       </c>
       <c r="D15" s="1">
         <v>2013</v>
@@ -893,24 +893,24 @@
         <v>283</v>
       </c>
       <c r="H15" s="1">
-        <v>170</v>
+        <v>97885</v>
       </c>
       <c r="I15" s="1">
-        <v>97885</v>
+        <v>159838</v>
       </c>
       <c r="J15" s="1">
-        <v>339</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1">
+        <v>6074</v>
+      </c>
+      <c r="C16" s="1">
         <v>1775</v>
-      </c>
-      <c r="C16" s="1">
-        <v>18.88297843933105</v>
       </c>
       <c r="D16" s="1">
         <v>2014</v>
@@ -925,24 +925,24 @@
         <v>396</v>
       </c>
       <c r="H16" s="1">
-        <v>87</v>
+        <v>20496</v>
       </c>
       <c r="I16" s="1">
-        <v>20496</v>
+        <v>46410</v>
       </c>
       <c r="J16" s="1">
-        <v>236</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
+        <v>10418</v>
+      </c>
+      <c r="C17" s="1">
         <v>2338</v>
-      </c>
-      <c r="C17" s="1">
-        <v>19.1639347076416</v>
       </c>
       <c r="D17" s="1">
         <v>2015</v>
@@ -957,24 +957,24 @@
         <v>678</v>
       </c>
       <c r="H17" s="1">
-        <v>-6</v>
+        <v>-42198</v>
       </c>
       <c r="I17" s="1">
-        <v>-42198</v>
+        <v>-25957</v>
       </c>
       <c r="J17" s="1">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="B18" s="1">
+        <v>28917</v>
+      </c>
+      <c r="C18" s="1">
         <v>18388</v>
-      </c>
-      <c r="C18" s="1">
-        <v>75.36065673828125</v>
       </c>
       <c r="D18" s="1">
         <v>2016</v>
@@ -989,24 +989,24 @@
         <v>737</v>
       </c>
       <c r="H18" s="1">
-        <v>66</v>
+        <v>4821</v>
       </c>
       <c r="I18" s="1">
-        <v>4821</v>
+        <v>-3909</v>
       </c>
       <c r="J18" s="1">
-        <v>273</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="B19" s="1">
+        <v>99483</v>
+      </c>
+      <c r="C19" s="1">
         <v>81724</v>
-      </c>
-      <c r="C19" s="1">
-        <v>213.3785858154297</v>
       </c>
       <c r="D19" s="1">
         <v>2017</v>
@@ -1021,24 +1021,24 @@
         <v>589</v>
       </c>
       <c r="H19" s="1">
-        <v>17</v>
+        <v>-12387</v>
       </c>
       <c r="I19" s="1">
-        <v>-12387</v>
+        <v>34227</v>
       </c>
       <c r="J19" s="1">
-        <v>189</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="B20" s="1">
+        <v>24722</v>
+      </c>
+      <c r="C20" s="1">
         <v>12674</v>
-      </c>
-      <c r="C20" s="1">
-        <v>22.7132625579834</v>
       </c>
       <c r="D20" s="1">
         <v>2018</v>
@@ -1053,24 +1053,24 @@
         <v>545</v>
       </c>
       <c r="H20" s="1">
-        <v>78</v>
+        <v>31670</v>
       </c>
       <c r="I20" s="1">
-        <v>31670</v>
+        <v>51872</v>
       </c>
       <c r="J20" s="1">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>57</v>
+        <v>543</v>
       </c>
       <c r="B21" s="1">
+        <v>31199</v>
+      </c>
+      <c r="C21" s="1">
         <v>9198</v>
-      </c>
-      <c r="C21" s="1">
-        <v>16.9392261505127</v>
       </c>
       <c r="D21" s="1">
         <v>2019</v>
@@ -1085,24 +1085,24 @@
         <v>484</v>
       </c>
       <c r="H21" s="1">
-        <v>74</v>
+        <v>50278</v>
       </c>
       <c r="I21" s="1">
-        <v>50278</v>
+        <v>142983</v>
       </c>
       <c r="J21" s="1">
-        <v>272</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="B22" s="1">
+        <v>227985</v>
+      </c>
+      <c r="C22" s="1">
         <v>185155</v>
-      </c>
-      <c r="C22" s="1">
-        <v>261.9937133789062</v>
       </c>
       <c r="D22" s="1">
         <v>2020</v>
@@ -1117,13 +1117,13 @@
         <v>566</v>
       </c>
       <c r="H22" s="1">
-        <v>234</v>
+        <v>247112</v>
       </c>
       <c r="I22" s="1">
-        <v>247112</v>
+        <v>442549</v>
       </c>
       <c r="J22" s="1">
-        <v>395</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
